--- a/ILRG_Hluvukani_F_parcels/ILRG_Hluvukani_F_parcels-media/ILRG_Hluvukani_F_parcels.xlsx
+++ b/ILRG_Hluvukani_F_parcels/ILRG_Hluvukani_F_parcels-media/ILRG_Hluvukani_F_parcels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\Hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_F_parcels\ILRG_Hluvukani_F_parcels-media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\hluvukani\ODK Forms\ILRG_hluvukani_odk_forms\ILRG_Hluvukani_F_parcels\ILRG_Hluvukani_F_parcels-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED824CEB-45B9-43A8-9A2A-016554FDC0A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67640E16-26DA-4FB4-B744-DD2949AD2DC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1740" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="652">
   <si>
     <t>type</t>
   </si>
@@ -423,9 +423,6 @@
     <t>select_one documents</t>
   </si>
   <si>
-    <t>regex(., "^[a-zA-Z0-9. _-]{1,25}$")</t>
-  </si>
-  <si>
     <t>Resposta invalida - Os campos de numero ou local de emissão do documento não podia incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
   </si>
   <si>
@@ -1456,9 +1453,6 @@
   </si>
   <si>
     <t>Esta pessoa é o titular, ou o(a) representante duma pessoa menor, ou representante duma pessoa ausente?</t>
-  </si>
-  <si>
-    <t>${right_holder}= 'party_id_key'</t>
   </si>
   <si>
     <t>select_one rep_relations</t>
@@ -1583,9 +1577,6 @@
     <t>party_role_1</t>
   </si>
   <si>
-    <t>${age_years}&gt;= 18 or ${age_range}= 'youth' or or ${age_range}= 'adult' or ${age_range}= 'elder'</t>
-  </si>
-  <si>
     <t>rep_relation_1</t>
   </si>
   <si>
@@ -1738,9 +1729,6 @@
     <t>witness_type</t>
   </si>
   <si>
-    <t>${witness}= 'party_id_key'</t>
-  </si>
-  <si>
     <t>new_witness_y_n</t>
   </si>
   <si>
@@ -1812,9 +1800,6 @@
   </si>
   <si>
     <t>A pessoa possui  ${age_years_1} anos, ou menos de 18 anos. &lt;br/&gt;&lt;br/&gt;Esta pessoa não pode ser testemunho(a), porque ainda é menor.&lt;br/&gt;&lt;br/&gt; &lt;span style="color:#FF0000"&gt;O(A) enumerador deve fazer registo duma outra pessoa, maior de que 18 anos.&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>${age_years_1}&lt; 18 or ${age_range_1}= 'minor'</t>
   </si>
   <si>
     <t>id_document_1</t>
@@ -1945,9 +1930,6 @@
     <t>blocks</t>
   </si>
   <si>
-    <t>search(${region_id}, 'startswith', 'party_name', ${searchtext}, 'block_id_key', ${block_id})</t>
-  </si>
-  <si>
     <t>concat('parcelas','_',${region_id},'_',${block_id},'_',${receipt_id})</t>
   </si>
   <si>
@@ -1988,15 +1970,64 @@
   </si>
   <si>
     <t>Fg13</t>
+  </si>
+  <si>
+    <t>${right_holder}!= '1'</t>
+  </si>
+  <si>
+    <t>${witness}!= '1'</t>
+  </si>
+  <si>
+    <t>(. &lt; date('2001-06-01'))</t>
+  </si>
+  <si>
+    <t>${age_range_1}!='minor'</t>
+  </si>
+  <si>
+    <t>A pessoa possui  menos de 18 anos. Esta pessoa não pode ser testemunho(a), porque ainda é menor.
+O(A) enumerador deve voltar para atras e fazer registo duma outra pessoa, maior de que 18 anos.</t>
+  </si>
+  <si>
+    <t>${age_years_1}&lt; 1 or ${age_range_1}= 'minor'</t>
+  </si>
+  <si>
+    <t>regex(., "^[a-zA-Z0-9()/-]{1,45}$")</t>
+  </si>
+  <si>
+    <t>search(${region_id}, 'startswith', 'party_name', ${searchtext})</t>
+  </si>
+  <si>
+    <t>search(${region_id}, 'startswith', 'party_name', ${searchtext_1})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2239,297 +2270,304 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2538,118 +2576,121 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2887,6 +2928,10 @@
     <cellStyle name="Normal 3" xfId="234" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Normal 3 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Normal 3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="238" xr:uid="{43A7D66F-DAFE-4187-AA59-81B14873FB09}"/>
+    <cellStyle name="Normal 3 2 2 2 2" xfId="239" xr:uid="{6452C0EA-1FE1-46DA-849B-5EA5C59F490A}"/>
+    <cellStyle name="Normal 3 2 2 2 4" xfId="240" xr:uid="{36C038FD-D1D1-48A8-AD16-C0158B514099}"/>
+    <cellStyle name="Normal 3 2 2 3" xfId="237" xr:uid="{E4CC9617-7A85-4FA2-9C36-4571E5393965}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3226,11 +3271,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AML155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C140" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C159" sqref="C159"/>
+      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,8 +3286,8 @@
     <col min="4" max="4" width="27" style="15" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="15" customWidth="1"/>
     <col min="6" max="6" width="46.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="15" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="15" customWidth="1"/>
     <col min="9" max="9" width="16.375" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="15" bestFit="1" customWidth="1"/>
@@ -3293,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>11</v>
@@ -3319,13 +3364,13 @@
     </row>
     <row r="3" spans="1:1026" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="52" t="s">
         <v>217</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>218</v>
       </c>
       <c r="M3" s="68"/>
       <c r="N3" s="63"/>
@@ -4344,13 +4389,13 @@
     </row>
     <row r="4" spans="1:1026" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="52" t="s">
         <v>219</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>220</v>
       </c>
       <c r="M4" s="68"/>
     </row>
@@ -4359,11 +4404,11 @@
         <v>62</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M5" s="68"/>
       <c r="N5" s="52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1026" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4371,7 +4416,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C6" s="14"/>
       <c r="L6" s="52" t="s">
@@ -4384,11 +4429,11 @@
         <v>30</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M7" s="68"/>
       <c r="O7" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:1026" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4396,10 +4441,10 @@
         <v>30</v>
       </c>
       <c r="B8" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="67" t="s">
         <v>223</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>224</v>
       </c>
       <c r="M8" s="68"/>
     </row>
@@ -4415,10 +4460,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="60" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="M10" s="68"/>
     </row>
@@ -4427,10 +4472,10 @@
         <v>32</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="52" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>226</v>
       </c>
       <c r="J11" s="52" t="s">
         <v>22</v>
@@ -4445,13 +4490,13 @@
         <v>101</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>227</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>228</v>
       </c>
       <c r="L12" s="52" t="s">
         <v>103</v>
@@ -4463,10 +4508,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="52" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>230</v>
       </c>
       <c r="H13" s="52" t="s">
         <v>105</v>
@@ -4481,10 +4526,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="52" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="52" t="s">
         <v>105</v>
@@ -4506,11 +4551,11 @@
         <v>62</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4518,11 +4563,11 @@
         <v>62</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -4533,7 +4578,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J18" s="52" t="s">
         <v>22</v>
@@ -4545,13 +4590,13 @@
     </row>
     <row r="19" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="C19" s="52" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="52" t="s">
-        <v>193</v>
       </c>
       <c r="J19" s="52" t="s">
         <v>22</v>
@@ -4563,16 +4608,16 @@
     </row>
     <row r="20" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="60" t="s">
-        <v>239</v>
-      </c>
       <c r="C20" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>194</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>195</v>
       </c>
       <c r="J20" s="52" t="s">
         <v>22</v>
@@ -4587,13 +4632,13 @@
         <v>26</v>
       </c>
       <c r="B21" s="72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J21" s="52" t="s">
         <v>22</v>
@@ -4608,16 +4653,16 @@
         <v>26</v>
       </c>
       <c r="B22" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="C22" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="H22" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="I22" s="52" t="s">
         <v>434</v>
-      </c>
-      <c r="I22" s="52" t="s">
-        <v>435</v>
       </c>
       <c r="J22" s="52" t="s">
         <v>22</v>
@@ -4632,10 +4677,10 @@
         <v>63</v>
       </c>
       <c r="B23" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>436</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>437</v>
       </c>
       <c r="J23" s="52" t="s">
         <v>22</v>
@@ -4647,16 +4692,16 @@
     </row>
     <row r="24" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B24" s="53" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="C24" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="G24" s="52" t="s">
         <v>440</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>441</v>
       </c>
       <c r="J24" s="52" t="s">
         <v>22</v>
@@ -4671,7 +4716,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C25" s="52" t="s">
         <v>65</v>
@@ -4689,13 +4734,13 @@
         <v>101</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="G26" s="52" t="s">
         <v>443</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>444</v>
       </c>
       <c r="L26" s="52" t="s">
         <v>103</v>
@@ -4704,10 +4749,10 @@
     </row>
     <row r="27" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B27" s="53" t="s">
         <v>445</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>446</v>
       </c>
       <c r="C27" s="52" t="s">
         <v>66</v>
@@ -4722,10 +4767,10 @@
     </row>
     <row r="28" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B28" s="53" t="s">
         <v>447</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>448</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>68</v>
@@ -4750,10 +4795,10 @@
         <v>64</v>
       </c>
       <c r="B30" s="53" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="52" t="s">
         <v>449</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>450</v>
       </c>
       <c r="J30" s="52" t="s">
         <v>22</v>
@@ -4768,13 +4813,13 @@
         <v>101</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C31" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="G31" s="52" t="s">
         <v>451</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>452</v>
       </c>
       <c r="L31" s="52" t="s">
         <v>103</v>
@@ -4783,13 +4828,13 @@
     </row>
     <row r="32" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="C32" s="52" t="s">
         <v>454</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>455</v>
       </c>
       <c r="J32" s="52" t="s">
         <v>22</v>
@@ -4804,16 +4849,16 @@
         <v>26</v>
       </c>
       <c r="B33" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="H33" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="H33" s="52" t="s">
+      <c r="I33" s="52" t="s">
         <v>458</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>459</v>
       </c>
       <c r="J33" s="52" t="s">
         <v>22</v>
@@ -4825,10 +4870,10 @@
         <v>64</v>
       </c>
       <c r="B34" s="53" t="s">
+        <v>459</v>
+      </c>
+      <c r="C34" s="52" t="s">
         <v>460</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>461</v>
       </c>
       <c r="J34" s="52" t="s">
         <v>22</v>
@@ -4850,10 +4895,10 @@
         <v>101</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L36" s="52" t="s">
         <v>103</v>
@@ -4862,13 +4907,13 @@
     </row>
     <row r="37" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="B37" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>464</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>465</v>
       </c>
       <c r="J37" s="52" t="s">
         <v>22</v>
@@ -4880,10 +4925,10 @@
     </row>
     <row r="38" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B38" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="52" t="s">
         <v>81</v>
@@ -4898,7 +4943,7 @@
     </row>
     <row r="39" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B39" s="53" t="s">
         <v>80</v>
@@ -4926,10 +4971,10 @@
         <v>29</v>
       </c>
       <c r="B41" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" s="52" t="s">
         <v>468</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>469</v>
       </c>
       <c r="H41" s="52" t="s">
         <v>61</v>
@@ -4944,13 +4989,13 @@
         <v>85</v>
       </c>
       <c r="B42" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="52" t="s">
         <v>470</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>471</v>
       </c>
       <c r="M42" s="69"/>
     </row>
@@ -4959,10 +5004,10 @@
         <v>26</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J43" s="52" t="s">
         <v>22</v>
@@ -4971,35 +5016,35 @@
     </row>
     <row r="44" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
+        <v>472</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44" s="54" t="s">
         <v>473</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>474</v>
       </c>
       <c r="J44" s="52" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="61" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="M44" s="69"/>
       <c r="N44" s="61"/>
     </row>
     <row r="45" spans="1:14" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="54" t="s">
         <v>475</v>
       </c>
-      <c r="B45" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>476</v>
-      </c>
       <c r="G45" s="55" t="s">
-        <v>477</v>
+        <v>643</v>
       </c>
       <c r="J45" s="52" t="s">
         <v>22</v>
@@ -5008,16 +5053,16 @@
     </row>
     <row r="46" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="G46" s="55" t="s">
         <v>479</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="G46" s="55" t="s">
-        <v>481</v>
       </c>
       <c r="J46" s="52" t="s">
         <v>22</v>
@@ -5036,10 +5081,10 @@
         <v>64</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C48" s="54" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="J48" s="52" t="s">
         <v>22</v>
@@ -5051,13 +5096,13 @@
         <v>29</v>
       </c>
       <c r="B49" s="53" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="G49" s="52" t="s">
         <v>484</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="G49" s="52" t="s">
-        <v>486</v>
       </c>
       <c r="H49" s="52" t="s">
         <v>61</v>
@@ -5072,13 +5117,13 @@
         <v>85</v>
       </c>
       <c r="B50" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>486</v>
+      </c>
+      <c r="E50" s="55" t="s">
         <v>487</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>488</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>489</v>
       </c>
       <c r="M50" s="68"/>
     </row>
@@ -5087,10 +5132,10 @@
         <v>101</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L51" s="52" t="s">
         <v>103</v>
@@ -5102,7 +5147,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C52" s="52" t="s">
         <v>104</v>
@@ -5117,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C53" s="52" t="s">
         <v>106</v>
@@ -5132,10 +5177,10 @@
         <v>26</v>
       </c>
       <c r="B54" s="53" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M54" s="68"/>
     </row>
@@ -5144,10 +5189,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="53" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J55" s="52" t="s">
         <v>22</v>
@@ -5159,10 +5204,10 @@
         <v>26</v>
       </c>
       <c r="B56" s="53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J56" s="52" t="s">
         <v>22</v>
@@ -5181,10 +5226,10 @@
         <v>101</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L58" s="52" t="s">
         <v>103</v>
@@ -5196,10 +5241,10 @@
         <v>107</v>
       </c>
       <c r="B59" s="53" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J59" s="52" t="s">
         <v>22</v>
@@ -5232,16 +5277,16 @@
         <v>26</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I61" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M61" s="68"/>
     </row>
@@ -5257,10 +5302,10 @@
         <v>64</v>
       </c>
       <c r="B63" s="53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J63" s="52" t="s">
         <v>22</v>
@@ -5275,16 +5320,16 @@
         <v>17</v>
       </c>
       <c r="B64" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="G64" s="52" t="s">
         <v>506</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="H64" s="52" t="s">
         <v>507</v>
-      </c>
-      <c r="G64" s="52" t="s">
-        <v>508</v>
-      </c>
-      <c r="H64" s="52" t="s">
-        <v>509</v>
       </c>
       <c r="J64" s="52" t="s">
         <v>22</v>
@@ -5296,16 +5341,16 @@
     </row>
     <row r="65" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="B65" s="53" t="s">
-        <v>510</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="G65" s="52" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J65" s="52" t="s">
         <v>22</v>
@@ -5320,11 +5365,11 @@
         <v>62</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M66" s="68"/>
       <c r="N66" s="52" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:14" s="52" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5332,28 +5377,25 @@
         <v>30</v>
       </c>
       <c r="B67" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="C67" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="G67" s="52" t="s">
         <v>514</v>
-      </c>
-      <c r="C67" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="G67" s="52" t="s">
-        <v>516</v>
       </c>
       <c r="M67" s="69"/>
     </row>
     <row r="68" spans="1:14" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C68" s="54" t="s">
         <v>475</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>517</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>476</v>
-      </c>
-      <c r="G68" s="52" t="s">
-        <v>518</v>
       </c>
       <c r="J68" s="52" t="s">
         <v>22</v>
@@ -5362,16 +5404,16 @@
     </row>
     <row r="69" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>516</v>
+      </c>
+      <c r="C69" s="54" t="s">
         <v>478</v>
       </c>
-      <c r="B69" s="53" t="s">
-        <v>519</v>
-      </c>
-      <c r="C69" s="54" t="s">
-        <v>480</v>
-      </c>
       <c r="G69" s="55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="J69" s="52" t="s">
         <v>22</v>
@@ -5383,10 +5425,10 @@
         <v>101</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L70" s="52" t="s">
         <v>103</v>
@@ -5398,10 +5440,10 @@
         <v>131</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J71" s="52" t="s">
         <v>22</v>
@@ -5416,16 +5458,16 @@
         <v>26</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>524</v>
-      </c>
-      <c r="H72" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="H72" s="84" t="s">
+        <v>649</v>
+      </c>
+      <c r="I72" s="52" t="s">
         <v>132</v>
-      </c>
-      <c r="I72" s="52" t="s">
-        <v>133</v>
       </c>
       <c r="M72" s="68"/>
     </row>
@@ -5434,16 +5476,16 @@
         <v>26</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I73" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M73" s="68"/>
     </row>
@@ -5452,13 +5494,13 @@
         <v>17</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L74" s="52" t="s">
         <v>28</v>
@@ -5470,13 +5512,13 @@
         <v>17</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H75" s="52" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L75" s="52" t="s">
         <v>28</v>
@@ -5488,10 +5530,10 @@
         <v>64</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M76" s="68"/>
     </row>
@@ -5506,10 +5548,10 @@
         <v>101</v>
       </c>
       <c r="B78" s="74" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L78" s="75" t="s">
         <v>103</v>
@@ -5520,16 +5562,16 @@
         <v>26</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="C79" s="77" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H79" s="75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I79" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:14" s="77" customFormat="1" x14ac:dyDescent="0.25">
@@ -5537,16 +5579,16 @@
         <v>26</v>
       </c>
       <c r="B80" s="78" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C80" s="77" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H80" s="77" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I80" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L80" s="77" t="s">
         <v>60</v>
@@ -5557,16 +5599,16 @@
         <v>26</v>
       </c>
       <c r="B81" s="78" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C81" s="77" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H81" s="77" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I81" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L81" s="77" t="s">
         <v>60</v>
@@ -5583,10 +5625,13 @@
         <v>64</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="J83" s="79" t="s">
+        <v>22</v>
       </c>
       <c r="M83" s="68"/>
     </row>
@@ -5598,13 +5643,13 @@
         <v>129</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G84" s="52" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H84" s="52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L84" s="52" t="s">
         <v>60</v>
@@ -5616,14 +5661,14 @@
         <v>30</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C85" s="64" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M85" s="70"/>
       <c r="O85" s="52" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -5631,16 +5676,16 @@
         <v>87</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J86" s="52" t="s">
         <v>22</v>
       </c>
       <c r="M86" s="55" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -5651,7 +5696,7 @@
         <v>88</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J87" s="52" t="s">
         <v>22</v>
@@ -5660,7 +5705,7 @@
         <v>88</v>
       </c>
       <c r="M87" s="55" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="52" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5668,14 +5713,14 @@
         <v>30</v>
       </c>
       <c r="B88" s="53" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C88" s="64" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M88" s="70"/>
       <c r="O88" s="52" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -5683,16 +5728,16 @@
         <v>87</v>
       </c>
       <c r="B89" s="53" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C89" s="54" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J89" s="52" t="s">
         <v>22</v>
       </c>
       <c r="M89" s="55" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5700,13 +5745,16 @@
         <v>87</v>
       </c>
       <c r="B90" s="53" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C90" s="54" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="J90" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="M90" s="55" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -5714,16 +5762,16 @@
         <v>26</v>
       </c>
       <c r="B91" s="53" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H91" s="52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I91" s="52" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L91" s="52" t="s">
         <v>60</v>
@@ -5735,16 +5783,16 @@
         <v>26</v>
       </c>
       <c r="B92" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>552</v>
+      </c>
+      <c r="H92" s="52" t="s">
+        <v>553</v>
+      </c>
+      <c r="I92" s="52" t="s">
         <v>554</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="H92" s="52" t="s">
-        <v>556</v>
-      </c>
-      <c r="I92" s="52" t="s">
-        <v>557</v>
       </c>
       <c r="M92" s="68"/>
     </row>
@@ -5760,16 +5808,16 @@
         <v>29</v>
       </c>
       <c r="B94" s="58" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C94" s="55" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H94" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="I94" s="55" t="s">
         <v>138</v>
-      </c>
-      <c r="I94" s="55" t="s">
-        <v>139</v>
       </c>
       <c r="J94" s="55" t="s">
         <v>22</v>
@@ -5781,13 +5829,13 @@
         <v>85</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E95" s="52" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M95" s="69"/>
     </row>
@@ -5796,10 +5844,10 @@
         <v>26</v>
       </c>
       <c r="B96" s="53" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J96" s="52" t="s">
         <v>22</v>
@@ -5808,35 +5856,35 @@
     </row>
     <row r="97" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B97" s="53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C97" s="54" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="J97" s="52" t="s">
         <v>22</v>
       </c>
       <c r="L97" s="61" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="M97" s="68"/>
       <c r="N97" s="61"/>
     </row>
     <row r="98" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="52" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B98" s="53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G98" s="52" t="s">
-        <v>569</v>
+        <v>136</v>
+      </c>
+      <c r="G98" s="79" t="s">
+        <v>644</v>
       </c>
       <c r="J98" s="52" t="s">
         <v>22</v>
@@ -5858,10 +5906,10 @@
         <v>64</v>
       </c>
       <c r="B100" s="53" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C100" s="54" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J100" s="52" t="s">
         <v>22</v>
@@ -5873,13 +5921,13 @@
         <v>29</v>
       </c>
       <c r="B101" s="53" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H101" s="52" t="s">
         <v>61</v>
@@ -5894,13 +5942,13 @@
         <v>85</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C102" s="56" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E102" s="55" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M102" s="68"/>
     </row>
@@ -5909,10 +5957,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L103" s="52" t="s">
         <v>103</v>
@@ -5924,7 +5972,7 @@
         <v>26</v>
       </c>
       <c r="B104" s="53" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C104" s="52" t="s">
         <v>104</v>
@@ -5939,7 +5987,7 @@
         <v>26</v>
       </c>
       <c r="B105" s="53" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C105" s="52" t="s">
         <v>106</v>
@@ -5954,10 +6002,10 @@
         <v>26</v>
       </c>
       <c r="B106" s="53" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M106" s="68"/>
     </row>
@@ -5966,10 +6014,10 @@
         <v>26</v>
       </c>
       <c r="B107" s="53" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J107" s="52" t="s">
         <v>22</v>
@@ -5981,10 +6029,10 @@
         <v>26</v>
       </c>
       <c r="B108" s="53" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J108" s="52" t="s">
         <v>22</v>
@@ -6003,10 +6051,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L110" s="52" t="s">
         <v>103</v>
@@ -6018,10 +6066,10 @@
         <v>107</v>
       </c>
       <c r="B111" s="53" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J111" s="52" t="s">
         <v>22</v>
@@ -6036,7 +6084,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="53" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C112" s="52" t="s">
         <v>109</v>
@@ -6054,16 +6102,16 @@
         <v>26</v>
       </c>
       <c r="B113" s="53" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H113" s="52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I113" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M113" s="68"/>
     </row>
@@ -6079,10 +6127,10 @@
         <v>64</v>
       </c>
       <c r="B115" s="53" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J115" s="52" t="s">
         <v>22</v>
@@ -6097,16 +6145,16 @@
         <v>17</v>
       </c>
       <c r="B116" s="53" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G116" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="H116" s="52" t="s">
-        <v>509</v>
+        <v>583</v>
+      </c>
+      <c r="H116" s="79" t="s">
+        <v>645</v>
       </c>
       <c r="J116" s="52" t="s">
         <v>22</v>
@@ -6118,16 +6166,22 @@
     </row>
     <row r="117" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="C117" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="B117" s="53" t="s">
-        <v>588</v>
-      </c>
-      <c r="C117" s="52" t="s">
-        <v>185</v>
-      </c>
       <c r="G117" s="52" t="s">
-        <v>589</v>
+        <v>585</v>
+      </c>
+      <c r="H117" s="80" t="s">
+        <v>646</v>
+      </c>
+      <c r="I117" s="81" t="s">
+        <v>647</v>
       </c>
       <c r="J117" s="52" t="s">
         <v>22</v>
@@ -6142,11 +6196,11 @@
         <v>62</v>
       </c>
       <c r="B118" s="53" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M118" s="68"/>
       <c r="N118" s="52" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="119" spans="1:14" s="52" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6154,13 +6208,13 @@
         <v>30</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C119" s="54" t="s">
-        <v>593</v>
-      </c>
-      <c r="G119" s="52" t="s">
-        <v>594</v>
+        <v>589</v>
+      </c>
+      <c r="G119" s="79" t="s">
+        <v>648</v>
       </c>
       <c r="M119" s="68"/>
     </row>
@@ -6169,10 +6223,10 @@
         <v>101</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L120" s="52" t="s">
         <v>103</v>
@@ -6184,10 +6238,10 @@
         <v>131</v>
       </c>
       <c r="B121" s="53" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J121" s="52" t="s">
         <v>22</v>
@@ -6202,16 +6256,16 @@
         <v>26</v>
       </c>
       <c r="B122" s="53" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>524</v>
-      </c>
-      <c r="H122" s="52" t="s">
+        <v>521</v>
+      </c>
+      <c r="H122" s="83" t="s">
+        <v>649</v>
+      </c>
+      <c r="I122" s="52" t="s">
         <v>132</v>
-      </c>
-      <c r="I122" s="52" t="s">
-        <v>133</v>
       </c>
       <c r="M122" s="68"/>
     </row>
@@ -6220,16 +6274,16 @@
         <v>26</v>
       </c>
       <c r="B123" s="53" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H123" s="52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I123" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M123" s="68"/>
     </row>
@@ -6238,10 +6292,10 @@
         <v>17</v>
       </c>
       <c r="B124" s="53" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L124" s="52" t="s">
         <v>28</v>
@@ -6253,10 +6307,10 @@
         <v>17</v>
       </c>
       <c r="B125" s="53" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L125" s="52" t="s">
         <v>28</v>
@@ -6268,10 +6322,10 @@
         <v>64</v>
       </c>
       <c r="B126" s="53" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M126" s="68"/>
     </row>
@@ -6287,10 +6341,10 @@
         <v>101</v>
       </c>
       <c r="B128" s="74" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="L128" s="75" t="s">
         <v>103</v>
@@ -6301,16 +6355,16 @@
         <v>26</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="C129" s="77" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="H129" s="75" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I129" s="75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:15" s="77" customFormat="1" x14ac:dyDescent="0.25">
@@ -6318,16 +6372,16 @@
         <v>26</v>
       </c>
       <c r="B130" s="78" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C130" s="77" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H130" s="77" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I130" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L130" s="77" t="s">
         <v>60</v>
@@ -6338,16 +6392,16 @@
         <v>26</v>
       </c>
       <c r="B131" s="78" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C131" s="77" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H131" s="77" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="I131" s="77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L131" s="77" t="s">
         <v>60</v>
@@ -6364,10 +6418,13 @@
         <v>64</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="J133" s="79" t="s">
+        <v>22</v>
       </c>
       <c r="M133" s="68"/>
     </row>
@@ -6376,16 +6433,16 @@
         <v>26</v>
       </c>
       <c r="B134" s="53" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G134" s="52" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L134" s="52" t="s">
         <v>60</v>
@@ -6397,14 +6454,14 @@
         <v>30</v>
       </c>
       <c r="B135" s="53" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C135" s="64" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="M135" s="70"/>
       <c r="O135" s="52" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="136" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6412,16 +6469,16 @@
         <v>87</v>
       </c>
       <c r="B136" s="53" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J136" s="52" t="s">
         <v>22</v>
       </c>
       <c r="M136" s="55" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="137" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6429,10 +6486,10 @@
         <v>87</v>
       </c>
       <c r="B137" s="53" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C137" s="52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J137" s="52" t="s">
         <v>22</v>
@@ -6441,7 +6498,7 @@
         <v>88</v>
       </c>
       <c r="M137" s="55" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="138" spans="1:15" s="52" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -6449,14 +6506,14 @@
         <v>30</v>
       </c>
       <c r="B138" s="53" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C138" s="64" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M138" s="70"/>
       <c r="O138" s="52" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6464,16 +6521,16 @@
         <v>87</v>
       </c>
       <c r="B139" s="53" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C139" s="54" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="J139" s="52" t="s">
         <v>22</v>
       </c>
       <c r="M139" s="55" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:15" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6481,13 +6538,16 @@
         <v>87</v>
       </c>
       <c r="B140" s="53" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C140" s="54" t="s">
-        <v>550</v>
+        <v>547</v>
+      </c>
+      <c r="J140" s="82" t="s">
+        <v>22</v>
       </c>
       <c r="M140" s="55" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6495,16 +6555,16 @@
         <v>26</v>
       </c>
       <c r="B141" s="53" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C141" s="52" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H141" s="52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I141" s="52" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="L141" s="52" t="s">
         <v>60</v>
@@ -6516,28 +6576,28 @@
         <v>26</v>
       </c>
       <c r="B142" s="53" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C142" s="52" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H142" s="52" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I142" s="52" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="M142" s="68"/>
     </row>
     <row r="143" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="52" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B143" s="53" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C143" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J143" s="52" t="s">
         <v>22</v>
@@ -6562,7 +6622,7 @@
         <v>95</v>
       </c>
       <c r="C145" s="52" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="J145" s="52" t="s">
         <v>22</v>
@@ -6574,10 +6634,10 @@
         <v>64</v>
       </c>
       <c r="B146" s="53" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C146" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J146" s="52" t="s">
         <v>22</v>
@@ -6589,13 +6649,13 @@
         <v>85</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C147" s="14" t="s">
         <v>96</v>
       </c>
       <c r="G147" s="52" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M147" s="68"/>
     </row>
@@ -6626,7 +6686,7 @@
       </c>
       <c r="M149" s="68"/>
       <c r="N149" s="65" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -6644,7 +6704,7 @@
         <v>92</v>
       </c>
       <c r="C151" s="64" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="M151" s="68"/>
     </row>
@@ -6653,10 +6713,10 @@
         <v>87</v>
       </c>
       <c r="B152" s="53" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C152" s="52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J152" s="52" t="s">
         <v>22</v>
@@ -6692,7 +6752,7 @@
   <dimension ref="A1:H250"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
@@ -6721,7 +6781,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6734,10 +6794,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6745,10 +6805,10 @@
         <v>18</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>398</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6756,10 +6816,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +6827,10 @@
         <v>18</v>
       </c>
       <c r="B6" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>401</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6778,10 +6838,10 @@
         <v>18</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6789,10 +6849,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>404</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6800,10 +6860,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="42" t="s">
         <v>406</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6811,10 +6871,10 @@
         <v>18</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>408</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6822,10 +6882,10 @@
         <v>18</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6833,10 +6893,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6844,7 +6904,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>31</v>
@@ -6857,35 +6917,35 @@
     </row>
     <row r="15" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>201</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>413</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
@@ -6893,16 +6953,16 @@
     </row>
     <row r="19" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B19" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>412</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>413</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="43"/>
@@ -6911,16 +6971,16 @@
     </row>
     <row r="20" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="43"/>
@@ -6929,16 +6989,16 @@
     </row>
     <row r="21" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B21" s="43" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="C21" s="42" t="s">
-        <v>416</v>
-      </c>
       <c r="D21" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="43"/>
@@ -6947,16 +7007,16 @@
     </row>
     <row r="22" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B22" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>418</v>
-      </c>
       <c r="D22" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="43"/>
@@ -6965,16 +7025,16 @@
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B23" s="43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>420</v>
-      </c>
       <c r="D23" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="43"/>
@@ -6983,16 +7043,16 @@
     </row>
     <row r="24" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B24" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>421</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>422</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="43"/>
@@ -7001,16 +7061,16 @@
     </row>
     <row r="25" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="43"/>
@@ -7019,16 +7079,16 @@
     </row>
     <row r="26" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="43"/>
@@ -7037,16 +7097,16 @@
     </row>
     <row r="27" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B27" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>425</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="D27" s="42" t="s">
         <v>426</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>427</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="43"/>
@@ -7055,16 +7115,16 @@
     </row>
     <row r="28" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="43"/>
@@ -7073,16 +7133,16 @@
     </row>
     <row r="29" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="71" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="43"/>
@@ -7111,7 +7171,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>25</v>
@@ -7126,10 +7186,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>241</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7137,10 +7197,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="44" t="s">
         <v>243</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7148,7 +7208,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>34</v>
@@ -7167,10 +7227,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="42" t="s">
         <v>246</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7178,10 +7238,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="42" t="s">
         <v>248</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7189,10 +7249,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="42" t="s">
         <v>250</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7200,10 +7260,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>252</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7211,10 +7271,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="43" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="42" t="s">
         <v>254</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7222,7 +7282,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C43" s="42" t="s">
         <v>31</v>
@@ -7238,10 +7298,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>257</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>258</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>38</v>
@@ -7249,10 +7309,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>47</v>
@@ -7260,10 +7320,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>39</v>
@@ -7271,10 +7331,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>40</v>
@@ -7282,10 +7342,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>41</v>
@@ -7293,10 +7353,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>42</v>
@@ -7304,10 +7364,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>83</v>
@@ -7315,10 +7375,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>43</v>
@@ -7326,10 +7386,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>44</v>
@@ -7337,10 +7397,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>45</v>
@@ -7348,10 +7408,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>46</v>
@@ -7359,10 +7419,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>31</v>
@@ -7377,10 +7437,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" s="43" t="s">
         <v>269</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>270</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>48</v>
@@ -7388,10 +7448,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>49</v>
@@ -7399,10 +7459,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>31</v>
@@ -7468,21 +7528,21 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="C67" s="42" t="s">
         <v>273</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C68" s="42" t="s">
         <v>59</v>
@@ -7497,24 +7557,24 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="C70" s="42" t="s">
         <v>277</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
@@ -7526,10 +7586,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C73" s="42" t="s">
         <v>51</v>
@@ -7537,7 +7597,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B74" s="43" t="s">
         <v>67</v>
@@ -7548,10 +7608,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>280</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>281</v>
       </c>
       <c r="C75" s="42" t="s">
         <v>53</v>
@@ -7559,10 +7619,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C76" s="42" t="s">
         <v>54</v>
@@ -7577,10 +7637,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>89</v>
@@ -7588,10 +7648,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="43" t="s">
         <v>283</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>284</v>
       </c>
       <c r="C79" s="42" t="s">
         <v>90</v>
@@ -7599,10 +7659,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C80" s="42" t="s">
         <v>91</v>
@@ -7610,21 +7670,21 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="42" t="s">
         <v>31</v>
@@ -7643,7 +7703,7 @@
         <v>121</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C84" s="42" t="s">
         <v>122</v>
@@ -7656,7 +7716,7 @@
         <v>121</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C85" s="42" t="s">
         <v>123</v>
@@ -7669,7 +7729,7 @@
         <v>121</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C86" s="42" t="s">
         <v>124</v>
@@ -7682,7 +7742,7 @@
         <v>121</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C87" s="42" t="s">
         <v>125</v>
@@ -7695,10 +7755,10 @@
         <v>121</v>
       </c>
       <c r="B88" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="42" t="s">
         <v>291</v>
-      </c>
-      <c r="C88" s="42" t="s">
-        <v>292</v>
       </c>
       <c r="D88" s="43"/>
       <c r="E88" s="42"/>
@@ -7708,10 +7768,10 @@
         <v>121</v>
       </c>
       <c r="B89" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="42" t="s">
         <v>293</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>294</v>
       </c>
       <c r="D89" s="43"/>
       <c r="E89" s="42"/>
@@ -7721,7 +7781,7 @@
         <v>121</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C90" s="42" t="s">
         <v>126</v>
@@ -7734,7 +7794,7 @@
         <v>121</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C91" s="42" t="s">
         <v>127</v>
@@ -7747,7 +7807,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C92" s="42" t="s">
         <v>128</v>
@@ -7773,7 +7833,7 @@
         <v>121</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="42" t="s">
         <v>36</v>
@@ -7787,46 +7847,46 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B96" s="45" t="s">
-        <v>299</v>
-      </c>
       <c r="C96" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B97" s="45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B98" s="45" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B99" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E99" s="42"/>
       <c r="F99" s="43"/>
@@ -7838,46 +7898,46 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B101" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="43" t="s">
-        <v>144</v>
-      </c>
       <c r="C101" s="42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C103" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E104" s="42"/>
       <c r="F104" s="43"/>
@@ -7889,24 +7949,24 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B106" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B107" s="46">
         <v>1</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E107" s="42"/>
       <c r="F107" s="46"/>
@@ -7918,112 +7978,112 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B109" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="49" t="s">
         <v>171</v>
-      </c>
-      <c r="C109" s="49" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B110" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="C110" s="49" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B111" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C111" s="49" t="s">
         <v>159</v>
-      </c>
-      <c r="C111" s="49" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B112" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C112" s="49" t="s">
         <v>165</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B113" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="48" t="s">
+      <c r="C113" s="49" t="s">
         <v>155</v>
-      </c>
-      <c r="C113" s="49" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B114" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C114" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="C114" s="49" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B115" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" s="49" t="s">
         <v>173</v>
-      </c>
-      <c r="C115" s="49" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="49" t="s">
         <v>161</v>
-      </c>
-      <c r="C116" s="49" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B117" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="49" t="s">
         <v>167</v>
-      </c>
-      <c r="C117" s="49" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B118" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="49" t="s">
         <v>163</v>
-      </c>
-      <c r="C118" s="49" t="s">
-        <v>164</v>
       </c>
       <c r="E118" s="42"/>
       <c r="F118" s="50"/>
@@ -8038,7 +8098,7 @@
         <v>110</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C120" s="42" t="s">
         <v>111</v>
@@ -8049,7 +8109,7 @@
         <v>110</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C121" s="42" t="s">
         <v>112</v>
@@ -8087,10 +8147,10 @@
         <v>69</v>
       </c>
       <c r="B126" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -8098,10 +8158,10 @@
         <v>69</v>
       </c>
       <c r="B127" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="34" t="s">
         <v>212</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -8163,10 +8223,10 @@
         <v>114</v>
       </c>
       <c r="B134" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="C134" s="42" t="s">
         <v>306</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -8174,10 +8234,10 @@
         <v>114</v>
       </c>
       <c r="B135" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C135" s="42" t="s">
         <v>308</v>
-      </c>
-      <c r="C135" s="42" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -8185,10 +8245,10 @@
         <v>114</v>
       </c>
       <c r="B136" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="C136" s="42" t="s">
         <v>310</v>
-      </c>
-      <c r="C136" s="42" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -8196,10 +8256,10 @@
         <v>114</v>
       </c>
       <c r="B137" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="C137" s="42" t="s">
         <v>312</v>
-      </c>
-      <c r="C137" s="42" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -8212,7 +8272,7 @@
         <v>115</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C139" s="42" t="s">
         <v>116</v>
@@ -8226,7 +8286,7 @@
         <v>115</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C140" s="42" t="s">
         <v>117</v>
@@ -8237,7 +8297,7 @@
         <v>115</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C141" s="42" t="s">
         <v>118</v>
@@ -8248,7 +8308,7 @@
         <v>115</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C142" s="42" t="s">
         <v>119</v>
@@ -8259,7 +8319,7 @@
         <v>115</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C143" s="42" t="s">
         <v>120</v>
@@ -8272,35 +8332,35 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="B145" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="B145" s="43" t="s">
+      <c r="C145" s="42" t="s">
         <v>320</v>
-      </c>
-      <c r="C145" s="42" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B146" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="C146" s="42" t="s">
         <v>322</v>
-      </c>
-      <c r="C146" s="42" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B147" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="C147" s="42" t="s">
         <v>324</v>
-      </c>
-      <c r="C147" s="42" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -8310,24 +8370,24 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="B149" s="43" t="s">
-        <v>327</v>
-      </c>
       <c r="C149" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B150" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,373 +8397,373 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="C152" s="42" t="s">
         <v>330</v>
-      </c>
-      <c r="C152" s="42" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B153" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153" s="42" t="s">
         <v>332</v>
-      </c>
-      <c r="C153" s="42" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B154" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154" s="42" t="s">
         <v>334</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B155" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" s="42" t="s">
         <v>336</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B156" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156" s="42" t="s">
         <v>338</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B157" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157" s="42" t="s">
         <v>340</v>
-      </c>
-      <c r="C157" s="42" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B158" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="42" t="s">
         <v>342</v>
-      </c>
-      <c r="C158" s="42" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B159" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159" s="42" t="s">
         <v>344</v>
-      </c>
-      <c r="C159" s="42" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B160" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160" s="42" t="s">
         <v>346</v>
-      </c>
-      <c r="C160" s="42" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B161" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161" s="42" t="s">
         <v>348</v>
-      </c>
-      <c r="C161" s="42" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B162" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162" s="42" t="s">
         <v>350</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B163" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="42" t="s">
         <v>352</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B164" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="42" t="s">
         <v>354</v>
-      </c>
-      <c r="C164" s="42" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B165" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165" s="42" t="s">
         <v>356</v>
-      </c>
-      <c r="C165" s="42" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B166" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166" s="42" t="s">
         <v>358</v>
-      </c>
-      <c r="C166" s="42" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B167" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167" s="42" t="s">
         <v>360</v>
-      </c>
-      <c r="C167" s="42" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B168" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="C168" s="42" t="s">
         <v>362</v>
-      </c>
-      <c r="C168" s="42" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B169" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="C169" s="42" t="s">
         <v>364</v>
-      </c>
-      <c r="C169" s="42" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B170" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="C170" s="42" t="s">
         <v>366</v>
-      </c>
-      <c r="C170" s="42" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B171" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C171" s="42" t="s">
         <v>368</v>
-      </c>
-      <c r="C171" s="42" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B172" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" s="42" t="s">
         <v>370</v>
-      </c>
-      <c r="C172" s="42" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B173" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="42" t="s">
         <v>372</v>
-      </c>
-      <c r="C173" s="42" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B174" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" s="42" t="s">
         <v>374</v>
-      </c>
-      <c r="C174" s="42" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B175" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C175" s="42" t="s">
         <v>376</v>
-      </c>
-      <c r="C175" s="42" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B176" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="C176" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="C176" s="42" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B177" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C177" s="42" t="s">
         <v>380</v>
-      </c>
-      <c r="C177" s="42" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B178" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C178" s="42" t="s">
         <v>382</v>
-      </c>
-      <c r="C178" s="42" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B179" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C179" s="42" t="s">
         <v>384</v>
-      </c>
-      <c r="C179" s="42" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B180" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="C180" s="42" t="s">
         <v>386</v>
-      </c>
-      <c r="C180" s="42" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B181" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C181" s="42" t="s">
         <v>388</v>
-      </c>
-      <c r="C181" s="42" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B182" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="C182" s="42" t="s">
         <v>390</v>
-      </c>
-      <c r="C182" s="42" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B183" s="43" t="s">
+        <v>391</v>
+      </c>
+      <c r="C183" s="42" t="s">
         <v>392</v>
-      </c>
-      <c r="C183" s="42" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B184" s="43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" s="42" t="s">
         <v>394</v>
-      </c>
-      <c r="C184" s="42" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B185" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C185" s="42" t="s">
         <v>31</v>
@@ -8978,8 +9038,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9007,16 +9067,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="37">
-        <v>201905101</v>
+        <v>201907081</v>
       </c>
       <c r="D2" s="73" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
